--- a/XLSX/Data Functionality Index Calculator v1.2.xlsx
+++ b/XLSX/Data Functionality Index Calculator v1.2.xlsx
@@ -1,35 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOADS\Desktop\dafi_github\XLSX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B034F556-AF3F-4F15-984D-FF590AAC1975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Readme" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="DAFI Questionnaire" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Index" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Questionnaire explanation" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Versions" sheetId="5" r:id="rId8"/>
+    <sheet name="Readme" sheetId="1" r:id="rId1"/>
+    <sheet name="DAFI Questionnaire" sheetId="2" r:id="rId2"/>
+    <sheet name="Index" sheetId="3" r:id="rId3"/>
+    <sheet name="Questionnaire explanation" sheetId="4" r:id="rId4"/>
+    <sheet name="Versions" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">the risk is higher when the project is new
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>the risk is higher when the project is new
 	-Hinda Haned</t>
+        </r>
       </text>
     </comment>
   </commentList>
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
@@ -38,37 +90,35 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t xml:space="preserve">How to use this file: </t>
     </r>
     <r>
       <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t xml:space="preserve">this spreadsheet can be used to compute the DAF-Index, based on a questionnaire. It assess how functional an AI project is. Note that this sheet contains the latest questionnaire for the DAF-Index. The older versions of the questionnaire can be obtained from GitHub, see </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t xml:space="preserve">Versions </t>
     </r>
     <r>
       <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t xml:space="preserve">sheet.
 </t>
@@ -77,39 +127,36 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t xml:space="preserve">Step 1: Framing the problem
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t xml:space="preserve">The first step is to clarify the purpose behind the discussion on the AI system's functionality. Answering the question: </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b val="0"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t>What constitutes a truly effective AI solution for the problem you're addressing?</t>
     </r>
     <r>
       <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t>, will help you identify the expected benefits as well as the potential risks associated with the system. By clearly outlining questions and concerns related to functionality, you can also establish realistic expectations for using the DAF-Index. This will ensure a productive discussion that yields concrete results and a follow-up plan.</t>
     </r>
@@ -117,20 +164,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t xml:space="preserve">Step 2: Answering the questionnaire
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t>Begin by determining who within your organization has the necessary knowledge to answer the questionnaire accurately. This could include the development team, stakeholders, and sponsors. The questionnaire facilitates a collaborative discussion about the project's core aspects. By working together, participants can critically evaluate the various functionality dimensions and identify any discrepancies in viewpoints. Open discussion and iteration might be necessary to reach a consensus on some questions.</t>
     </r>
@@ -138,20 +184,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t xml:space="preserve">Step 3: Generating the DAF-Inex
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t>Once all answers are finalized, use the provided scoring system to calculate the final DAF-Index.</t>
     </r>
@@ -159,20 +204,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t xml:space="preserve">Step 4: Reflecting onr results
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t>This final step involves analyzing the generated DAF-Index and its implications. Reflect on how well it aligns with your original goals. If any issues are identified during the discussions, brainstorm a mitigation plan to address them.</t>
     </r>
@@ -183,18 +227,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t>Utility</t>
     </r>
     <r>
       <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t>: This dimension assesses the project's direct impact on addressing a pressing business need or bottleneck. Projects with high utility demonstrate a clear definition and can be readily aligned with specific, measurable business KPIs</t>
     </r>
@@ -202,18 +246,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t xml:space="preserve">Verifiability: </t>
     </r>
     <r>
       <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t>Whether the system is at an early development stage or already at a pilot or MVP stage, it should be possible to verify any claims or existing data on its performance. This goes beyond simply reporting metrics like accuracy or precision. It requires a comprehensive understanding of how the system performs on various data sets and real-world use cases. Verifiability implies transparency throughout the development cycle, and the ability for end-users and relevant stakeholders to access system performance data, or any plans on how the system will be made verifiable in the future.</t>
     </r>
@@ -221,18 +265,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t>Feasibility</t>
     </r>
     <r>
       <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="Proxima Nova"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
       </rPr>
       <t>: This dimension measures whether the right pre-conditions (from an organizational perspective) are in place to conduct the project successfully. Note that questions around data accessibility and validity should be assessed before you consider using DAFI and it is assumed that the envisaged AI system can indeed be built on relevant data.</t>
     </r>
@@ -240,19 +284,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
         <rFont val="Proxima Nova"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="13.0"/>
       </rPr>
       <t xml:space="preserve">Measurability: </t>
     </r>
     <r>
       <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
         <rFont val="Proxima Nova"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="13.0"/>
       </rPr>
       <t>This dimension tackles how actionable an AI project is, and whether its impact can be measured concretely. While utility checks if the project aligns with business needs, measurability determines if the impact of the project can be quantified. Typically, the impact of a truly functional AI system can be evaluated at any time and independently from a system provider/vendor.</t>
     </r>
@@ -424,9 +467,6 @@
   </si>
   <si>
     <t xml:space="preserve">Feasibility </t>
-  </si>
-  <si>
-    <t>How the score is determined</t>
   </si>
   <si>
     <t>Interpretation</t>
@@ -500,261 +540,261 @@
   <si>
     <r>
       <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
         <rFont val="Proxima Nova"/>
-        <color rgb="FF000000"/>
-        <sz val="16.0"/>
       </rPr>
       <t>Data Analytics Functionality Index</t>
     </r>
     <r>
       <rPr>
+        <sz val="16"/>
         <rFont val="Proxima Nova"/>
-        <sz val="16.0"/>
       </rPr>
       <t xml:space="preserve"> by </t>
     </r>
     <r>
       <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
         <rFont val="Proxima Nova"/>
-        <color rgb="FF000000"/>
-        <sz val="16.0"/>
       </rPr>
       <t>Hinda Haned (Owls &amp; Arrows)</t>
     </r>
     <r>
       <rPr>
+        <sz val="16"/>
         <rFont val="Proxima Nova"/>
-        <sz val="16.0"/>
       </rPr>
       <t xml:space="preserve">, licensed under </t>
     </r>
     <r>
       <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
         <rFont val="Proxima Nova"/>
-        <color rgb="FF000000"/>
-        <sz val="16.0"/>
       </rPr>
       <t>CC BY-NC-SA 4.0</t>
     </r>
+  </si>
+  <si>
+    <t>select yes/no for each question</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="37">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="36">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
-      <sz val="21.0"/>
+      <sz val="21"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FF0000FF"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF0000FF"/>
       <name val="Proxima Nova"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="17.0"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
       <u/>
-      <sz val="13.0"/>
-      <color theme="1"/>
-      <name val="Proxima Nova"/>
-    </font>
-    <font>
-      <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
-      <sz val="23.0"/>
+      <sz val="23"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="&quot;Google Sans Mono&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Proxima Nova"/>
-    </font>
-    <font>
-      <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="21.0"/>
+      <sz val="21"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="21.0"/>
+      <sz val="21"/>
       <color rgb="FF999999"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFB7B7B7"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FF999999"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF434343"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFEFEFEF"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF666666"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FF073763"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <b/>
-      <sz val="16.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;docs-Proxima Nova&quot;"/>
-    </font>
-    <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF0000FF"/>
+      <name val="Proxima Nova"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Proxima Nova"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Proxima Nova"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Proxima Nova"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Proxima Nova"/>
     </font>
   </fonts>
@@ -763,7 +803,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -820,8 +860,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
-    <border/>
+  <borders count="35">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="dotted">
         <color rgb="FF000000"/>
@@ -835,14 +881,18 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -851,30 +901,42 @@
       <right style="dotted">
         <color rgb="FFD9D9D9"/>
       </right>
+      <top/>
       <bottom style="dotted">
         <color rgb="FFD9D9D9"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="dotted">
         <color rgb="FFCCCCCC"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="dotted">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="dotted">
         <color rgb="FFCCCCCC"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -886,14 +948,19 @@
       <top style="thin">
         <color rgb="FFFF9900"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="dotted">
         <color rgb="FFCCCCCC"/>
       </right>
+      <top/>
       <bottom style="dotted">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -908,6 +975,7 @@
       <bottom style="dotted">
         <color rgb="FFD9D9D9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -916,14 +984,11 @@
       <right style="thin">
         <color rgb="FFFF9900"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFFF9900"/>
       </bottom>
-    </border>
-    <border>
-      <top style="dotted">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -932,31 +997,11 @@
       <right style="dotted">
         <color rgb="FFCCCCCC"/>
       </right>
+      <top/>
       <bottom style="dotted">
         <color rgb="FFCCCCCC"/>
       </bottom>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FFCCCCCC"/>
-      </right>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -968,6 +1013,8 @@
       <top style="dotted">
         <color rgb="FFD9D9D9"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -976,33 +1023,11 @@
       <right style="dotted">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FFCCCCCC"/>
-      </right>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FFCCCCCC"/>
-      </top>
-    </border>
-    <border>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -1017,8 +1042,10 @@
       <bottom style="dotted">
         <color rgb="FFCCCCCC"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="dotted">
         <color rgb="FF000000"/>
       </right>
@@ -1028,6 +1055,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1042,306 +1070,551 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="97">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="26" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="14" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="7" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="25" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="30" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="8" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="9" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="10" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="35" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="15">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF38761D"/>
-          <bgColor rgb="FF38761D"/>
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <font>
+        <color rgb="FFF3F3F3"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
+          <fgColor rgb="FFFF2A00"/>
+          <bgColor rgb="FFFF2A00"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD320"/>
-          <bgColor rgb="FFFFD320"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
@@ -1353,41 +1626,166 @@
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFF3F3F3"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF2A00"/>
-          <bgColor rgb="FFFF2A00"/>
+          <fgColor rgb="FFFFD320"/>
+          <bgColor rgb="FFFFD320"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9867900" cy="2943225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="2" name="image2.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60960" y="0"/>
+          <a:ext cx="9867900" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1190625" cy="981075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1404,53 +1802,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1190625" cy="981075"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1640,1016 +1993,1012 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="130.0"/>
+    <col min="1" max="1" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" ht="16.8">
       <c r="A1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" ht="16.8">
       <c r="A2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" ht="16.8">
       <c r="A3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" ht="16.8">
       <c r="A4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" ht="16.8">
       <c r="A5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" ht="16.8">
       <c r="A6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" ht="16.8">
       <c r="A7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" ht="16.8">
       <c r="A8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" ht="16.8">
       <c r="A9" s="2"/>
     </row>
-    <row r="13" ht="83.25" customHeight="1">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:1" ht="83.25" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:1" ht="50.4">
+      <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="98.25" customHeight="1">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:1" ht="98.25" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="98.25" customHeight="1">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:1" ht="98.25" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:1" ht="33.6">
+      <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" ht="66.75" customHeight="1">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:1" ht="66.75" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" ht="46.5" customHeight="1">
-      <c r="A20" s="8" t="s">
+    <row r="19" spans="1:1" ht="16.8">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" ht="46.5" customHeight="1">
+      <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="54.75" customHeight="1">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:1" ht="54.75" customHeight="1">
+      <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" ht="96.0" customHeight="1">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:1" ht="96" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" ht="69.0" customHeight="1">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:1" ht="69" customHeight="1">
+      <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" ht="66.75" customHeight="1">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:1" ht="66.599999999999994" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="46.5" customHeight="1">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:1" ht="46.2" customHeight="1">
+      <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="More details on the dimensions can be found here. " location="'Questionnaire explanation'!A1" ref="A25"/>
+    <hyperlink ref="A25" location="'Questionnaire explanation'!A1" display="More details on the dimensions can be found here. " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.63"/>
-    <col customWidth="1" min="2" max="2" width="71.38"/>
-    <col customWidth="1" min="3" max="3" width="18.75"/>
-    <col customWidth="1" min="4" max="4" width="7.88"/>
-    <col customWidth="1" min="5" max="5" width="5.88"/>
-    <col customWidth="1" min="6" max="6" width="32.5"/>
-    <col hidden="1" min="7" max="11" width="12.63"/>
-    <col customWidth="1" min="12" max="12" width="17.88"/>
-    <col customWidth="1" min="13" max="13" width="27.88"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="96.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="39.21875" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" customWidth="1"/>
+    <col min="7" max="11" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="27.88671875" hidden="1"/>
+    <col min="14" max="16384" width="12.6640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:13" ht="60" customHeight="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="94" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
+      <c r="E1" s="93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="34.799999999999997" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="str">
-        <f t="shared" ref="D2:D6" si="1">IFS(C2="Yes",1, C2="No",0,C2="","")</f>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="str" cm="1">
+        <f t="array" ref="D2">_xlfn.IFS(C2="Yes",1, C2="No",0,C2="","")</f>
         <v/>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="90"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" ht="22.8" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="88" t="str" cm="1">
+        <f t="array" ref="D3">_xlfn.IFS(C3="Yes",1, C3="No",0,C3="","")</f>
         <v/>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="88" t="str" cm="1">
+        <f t="array" ref="D4">_xlfn.IFS(C4="Yes",1, C4="No",0,C4="","")</f>
         <v/>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="G4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="38.4" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="88" t="str" cm="1">
+        <f t="array" ref="D5">_xlfn.IFS(C5="Yes",1, C5="No",0,C5="","")</f>
         <v/>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6" ht="33.75" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="29.4" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="87" t="str" cm="1">
+        <f t="array" ref="D6">_xlfn.IFS(C6="Yes",1, C6="No",0,C6="","")</f>
         <v/>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="26">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+      <c r="G6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+    </row>
+    <row r="8" spans="1:13" ht="33.6">
+      <c r="A8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="str">
-        <f t="shared" ref="D8:D12" si="2">IFS(C8="Yes",1, C8="No",0,C8="","")</f>
+      <c r="C8" s="14"/>
+      <c r="D8" s="89" t="str" cm="1">
+        <f t="array" ref="D8">_xlfn.IFS(C8="Yes",1, C8="No",0,C8="","")</f>
         <v/>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+    </row>
+    <row r="9" spans="1:13" ht="33.6">
+      <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="88" t="str" cm="1">
+        <f t="array" ref="D9">_xlfn.IFS(C9="Yes",1, C9="No",0,C9="","")</f>
         <v/>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+    </row>
+    <row r="10" spans="1:13" ht="26.4" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="88" t="str" cm="1">
+        <f t="array" ref="D10">_xlfn.IFS(C10="Yes",1, C10="No",0,C10="","")</f>
         <v/>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:13" ht="25.8" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="88" t="str" cm="1">
+        <f t="array" ref="D11">_xlfn.IFS(C11="Yes",1, C11="No",0,C11="","")</f>
         <v/>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="12" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" ht="45" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="25" t="str">
-        <f t="shared" si="2"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="87" t="str" cm="1">
+        <f t="array" ref="D12">_xlfn.IFS(C12="Yes",1, C12="No",0,C12="","")</f>
         <v/>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="38"/>
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:13" ht="32.4" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="12" t="s">
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+    </row>
+    <row r="14" spans="1:13" ht="33.6">
+      <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="16" t="str">
-        <f t="shared" ref="D14:D18" si="3">IFS(C14="Yes",1, C14="No",0,C14="","")</f>
+      <c r="C14" s="80"/>
+      <c r="D14" s="86" t="str" cm="1">
+        <f t="array" ref="D14">_xlfn.IFS(C14="Yes",1, C14="No",0,C14="","")</f>
         <v/>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="12" t="s">
+      <c r="E14" s="84"/>
+    </row>
+    <row r="15" spans="1:13" ht="36" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="18" t="str">
-        <f t="shared" si="3"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="83" t="str" cm="1">
+        <f t="array" ref="D15">_xlfn.IFS(C15="Yes",1, C15="No",0,C15="","")</f>
         <v/>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="s">
+      <c r="E15" s="84"/>
+    </row>
+    <row r="16" spans="1:13" ht="33.6">
+      <c r="A16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="18" t="str">
-        <f t="shared" si="3"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="85" t="str" cm="1">
+        <f t="array" ref="D16">_xlfn.IFS(C16="Yes",1, C16="No",0,C16="","")</f>
         <v/>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:5" ht="16.8">
+      <c r="A17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="18" t="str">
-        <f t="shared" si="3"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="83" t="str" cm="1">
+        <f t="array" ref="D17">_xlfn.IFS(C17="Yes",1, C17="No",0,C17="","")</f>
         <v/>
       </c>
-    </row>
-    <row r="18" ht="57.0" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="E17" s="84"/>
+    </row>
+    <row r="18" spans="1:5" ht="47.4" customHeight="1">
+      <c r="A18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="25" t="str">
-        <f t="shared" si="3"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82" t="str" cm="1">
+        <f t="array" ref="D18">_xlfn.IFS(C18="Yes",1, C18="No",0,C18="","")</f>
         <v/>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="38"/>
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="1:5" ht="40.200000000000003" customHeight="1">
+      <c r="A19" s="27"/>
+      <c r="B19" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="12" t="s">
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+    </row>
+    <row r="20" spans="1:5" ht="33.6">
+      <c r="A20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="16" t="str">
-        <f t="shared" ref="D20:D24" si="4">IFS(C20="Yes",1, C20="No",0,C20="","")</f>
+      <c r="C20" s="30"/>
+      <c r="D20" s="72" t="str" cm="1">
+        <f t="array" ref="D20">_xlfn.IFS(C20="Yes",1, C20="No",0,C20="","")</f>
         <v/>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:5" ht="33.6">
+      <c r="A21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="72" t="str" cm="1">
+        <f t="array" ref="D21">_xlfn.IFS(C21="Yes",1, C21="No",0,C21="","")</f>
         <v/>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:5" ht="50.4">
+      <c r="A22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="72" t="str" cm="1">
+        <f t="array" ref="D22">_xlfn.IFS(C22="Yes",1, C22="No",0,C22="","")</f>
         <v/>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:5" ht="33.6">
+      <c r="A23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="72" t="str" cm="1">
+        <f t="array" ref="D23">_xlfn.IFS(C23="Yes",1, C23="No",0,C23="","")</f>
         <v/>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:5" ht="50.4">
+      <c r="A24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="25" t="str">
-        <f t="shared" si="4"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="72" t="str" cm="1">
+        <f t="array" ref="D24">_xlfn.IFS(C24="Yes",1, C24="No",0,C24="","")</f>
         <v/>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-    </row>
+    <row r="25" spans="1:5" ht="16.8" hidden="1">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.8" hidden="1">
+      <c r="A26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F9:L9"/>
   </mergeCells>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="A">
-      <formula>LEFT((L9),LEN("A"))=("A")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="B">
-      <formula>LEFT((L9),LEN("B"))=("B")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH(("C"),(L9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:F9">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
-      <formula>0.65</formula>
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:F9">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:F9">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
-      <formula>0.65</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C6 C8:C12 C14:C15 C17:C18 C20:C24">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C17:C18 C8:C12 C14:C15 C20:C24 C3:C6 C2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="Click here once you filled the questionnaire" location="Index!A1" ref="F4"/>
+    <hyperlink ref="F4" location="Index!A1" display="Click here once you filled the questionnaire" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.88"/>
-    <col customWidth="1" min="2" max="2" width="31.13"/>
-    <col customWidth="1" min="3" max="3" width="27.75"/>
-    <col customWidth="1" min="4" max="4" width="40.88"/>
-    <col customWidth="1" min="5" max="5" width="11.63"/>
-    <col customWidth="1" min="6" max="6" width="13.63"/>
-    <col customWidth="1" min="7" max="7" width="21.63"/>
-    <col customWidth="1" min="8" max="8" width="44.5"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="65.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.44140625" customWidth="1"/>
+    <col min="13" max="16384" width="12.6640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="16.8">
       <c r="A1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.2">
+      <c r="A2" s="68" t="s">
         <v>60</v>
       </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="1"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="I3" s="54"/>
-    </row>
-    <row r="4">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.8">
+      <c r="A3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.8">
       <c r="A4" s="1"/>
-      <c r="B4" s="55"/>
-      <c r="I4" s="56"/>
-    </row>
-    <row r="5">
+      <c r="B4" s="38"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.8">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="I5" s="56"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="57" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="45.6">
+      <c r="A6" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="I6" s="56"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="61" t="s">
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" ht="27">
+      <c r="A7" s="67"/>
+      <c r="B7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="62" t="str">
-        <f>average('DAFI Questionnaire'!D2:D6)</f>
+      <c r="C7" s="43" t="e">
+        <f>AVERAGE('DAFI Questionnaire'!D2:D6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D7" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="64" t="s">
+      <c r="D7" s="44">
+        <v>1</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="56"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="61" t="s">
+    </row>
+    <row r="8" spans="1:12" ht="27">
+      <c r="A8" s="67"/>
+      <c r="B8" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="62" t="str">
-        <f>average('DAFI Questionnaire'!D8:D12)</f>
+      <c r="C8" s="43" t="e">
+        <f>AVERAGE('DAFI Questionnaire'!D8:D12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D8" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="65" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("AVERAGE.WEIGHTED(C7:C10,D7:D10)"),"#DIV/0!")</f>
+      <c r="D8" s="44">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="46" t="e">
+        <f>(SUMPRODUCT(C7:C10,D7:D10)/SUM(D7:D10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="66" t="str">
-        <f>IFS(F8&gt;0.8,"A",AND(F8&lt;=0.8, F8 &gt;=  0.65),"B", F8&lt;0.65,"C")</f>
+      <c r="G8" s="47" t="e" cm="1">
+        <f t="array" ref="G8">_xlfn.IFS(F8&gt;0.8,"A",AND(F8&lt;=0.8, F8 &gt;=  0.65),"B", F8&lt;0.65,"C")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="56"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="61" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="22.8">
+      <c r="A9" s="67"/>
+      <c r="B9" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="62" t="str">
-        <f>average('DAFI Questionnaire'!D14:D18)</f>
+      <c r="C9" s="43" t="e">
+        <f>AVERAGE('DAFI Questionnaire'!D14:D18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D9" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="53"/>
-      <c r="I9" s="56"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="61" t="s">
+      <c r="D9" s="44">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36"/>
+    </row>
+    <row r="10" spans="1:12" ht="22.8">
+      <c r="A10" s="67"/>
+      <c r="B10" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="62" t="str">
-        <f>average('DAFI Questionnaire'!D20:D24)</f>
+      <c r="C10" s="43" t="e">
+        <f>AVERAGE('DAFI Questionnaire'!D20:D24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D10" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="I10" s="56"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="53"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="53"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="53"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="53"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="53"/>
-      <c r="B13" s="68" t="s">
+      <c r="D10" s="44">
+        <v>1</v>
+      </c>
+      <c r="E10" s="36"/>
+    </row>
+    <row r="11" spans="1:12" ht="22.8">
+      <c r="A11" s="36"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="36"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.8">
+      <c r="A12" s="36"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="36"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.8">
+      <c r="A13" s="36"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.8">
+      <c r="A14" s="49"/>
+      <c r="B14" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="69"/>
-      <c r="B14" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="71" t="s">
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.8">
+      <c r="A15" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="57" t="s">
+      <c r="B15" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="C15" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="D15" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="1:12" ht="48" customHeight="1">
+      <c r="A16" s="67"/>
+      <c r="B16" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-    </row>
-    <row r="16" ht="48.0" customHeight="1">
-      <c r="B16" s="75" t="s">
+      <c r="C16" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="D16" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:12" ht="45.6">
+      <c r="A17" s="67"/>
+      <c r="B17" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="75" t="s">
+      <c r="C17" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="D17" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="74" t="s">
-        <v>78</v>
-      </c>
       <c r="E17" s="1"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-    </row>
-    <row r="18" ht="27.75" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-    </row>
-    <row r="19" ht="37.5" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-    </row>
-    <row r="20" ht="35.25" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="1:12" ht="37.5" hidden="1" customHeight="1">
+      <c r="A19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="1:12" ht="35.25" hidden="1" customHeight="1">
+      <c r="A20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+    </row>
+    <row r="21" spans="1:12" ht="13.2" hidden="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12" ht="13.2" hidden="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12" ht="13.2" hidden="1">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:12" ht="13.2" hidden="1">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12" ht="13.2" hidden="1">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.2" hidden="1">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+    </row>
+    <row r="27" spans="1:12" ht="13.2" hidden="1">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:12" ht="13.2" hidden="1">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+    </row>
+    <row r="29" spans="1:12" ht="13.2" hidden="1">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+    </row>
+    <row r="30" spans="1:12" ht="13.2" hidden="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+    </row>
+    <row r="31" spans="1:12" ht="13.2" hidden="1">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.2" hidden="1">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+    </row>
+    <row r="33" spans="1:12" ht="13.2" hidden="1">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+    </row>
+    <row r="34" spans="1:12" ht="13.2" hidden="1">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2659,218 +3008,249 @@
     <mergeCell ref="A15:A17"/>
   </mergeCells>
   <conditionalFormatting sqref="A24:F24">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(A24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>0.65</formula>
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I10">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I10">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
-      <formula>0.65</formula>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="7">
+      <formula>LEN(TRIM(E12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(F8 &gt;=0.65,  F8&lt;=0.8)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="7">
-      <formula>LEN(TRIM(E12))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>F8 &gt;0.8</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>F8&lt;0.65</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="134.38"/>
-    <col hidden="1" min="2" max="6" width="12.63"/>
+    <col min="1" max="1" width="134.33203125" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:6" ht="16.8">
+      <c r="A2" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.8">
+      <c r="A3" s="67"/>
+      <c r="B3" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A4" s="67"/>
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A5" s="67"/>
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="96" customHeight="1">
+      <c r="A6" s="67"/>
+      <c r="B6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21">
+      <c r="A7" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.2">
+      <c r="A8" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="24.75" customHeight="1">
-      <c r="B4" s="26">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5" ht="33.75" customHeight="1">
-      <c r="B5" s="26">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6" ht="96.0" customHeight="1">
-      <c r="B6" s="26">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="78" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6">
+      <c r="A9" s="67"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A10" s="67"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="67"/>
+    </row>
+    <row r="12" spans="1:6" ht="64.5" customHeight="1">
+      <c r="A12" s="67"/>
+    </row>
+    <row r="13" spans="1:6" ht="30.6" customHeight="1">
+      <c r="A13" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="65"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.2">
+      <c r="A14" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="29"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="12" ht="64.5" customHeight="1"/>
-    <row r="13">
-      <c r="A13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="27"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="78" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="67"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A16" s="67"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A17" s="67"/>
+    </row>
+    <row r="18" spans="1:1" ht="23.25" customHeight="1">
+      <c r="A18" s="67"/>
+    </row>
+    <row r="19" spans="1:1" ht="21">
+      <c r="A19" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="13.2">
+      <c r="A20" s="71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" ht="21.75" customHeight="1"/>
-    <row r="18" ht="23.25" customHeight="1"/>
-    <row r="19">
-      <c r="A19" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="78" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" ht="1.5" customHeight="1"/>
-    <row r="25" ht="96.75" customHeight="1"/>
-    <row r="27" ht="1.5" customHeight="1"/>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A21" s="67"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A22" s="67"/>
+    </row>
+    <row r="23" spans="1:1" ht="1.5" customHeight="1">
+      <c r="A23" s="67"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A24" s="67"/>
+    </row>
+    <row r="25" spans="1:1" ht="96.75" customHeight="1">
+      <c r="A25" s="67"/>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:1" ht="1.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A20:A25"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A20:A25"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:CDJ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="A6:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.0"/>
-    <col customWidth="1" min="2" max="2" width="85.13"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="85.109375" customWidth="1"/>
+    <col min="3" max="2142" width="0" hidden="1" customWidth="1"/>
+    <col min="2143" max="16384" width="12.6640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="59">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21">
+      <c r="A2" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="81">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="80" t="s">
+      <c r="B2" s="60">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21">
+      <c r="A3" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="82">
-        <v>45444.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="80" t="s">
+      <c r="B3" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="83" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30.75" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" ht="30.75" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="B4" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="83" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="66.75" customHeight="1">
+      <c r="A5" s="58" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" ht="66.75" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="B5" s="61" t="s">
         <v>89</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B4"/>
-    <hyperlink r:id="rId3" ref="B5"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>